--- a/data/compatibility/openEuler20.03-LTS-SP3上两类平台板卡兼容清单.xlsx
+++ b/data/compatibility/openEuler20.03-LTS-SP3上两类平台板卡兼容清单.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lwx1124290\Desktop\1017\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="openEuler20.03-LTS-SP3两类平台板卡兼容性" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2980" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2997" uniqueCount="498">
   <si>
     <t>vendorID</t>
   </si>
@@ -1552,18 +1557,74 @@
   <si>
     <t>问题</t>
   </si>
+  <si>
+    <t>8086</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>159b</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>0003</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ice</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.9.11</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>NIC</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.10.14</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>E810-XXV-2</t>
+  </si>
+  <si>
+    <t>E810-XXV</t>
+  </si>
+  <si>
+    <t>06310219</t>
+  </si>
+  <si>
+    <t>1c7640e81ba489321c6b29024517851f927291eb2e1c5c292ef5a74a6462f064</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2MB</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>https://repo.oepkgs.net/openEuler/rpm/openEuler-2</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0.03-LTS-SP3/contrib/drivers/source/Packages/ice-1.9.11.tar.gz</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1626,150 +1687,40 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0D0D0D"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1808,192 +1759,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2018,247 +1789,23 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="52">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2269,18 +1816,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="51">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2372,8 +1919,8 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2384,8 +1931,8 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="10" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2404,7 +1951,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2424,63 +1971,21 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="10" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="52">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 3" xfId="50"/>
-    <cellStyle name="常规 4" xfId="51"/>
+    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="常规 3" xfId="3"/>
+    <cellStyle name="常规 4" xfId="4"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -2553,6 +2058,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2810,18 +2318,17 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
+      <pane ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J189" sqref="J189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2846,7 +2353,7 @@
     <col min="19" max="1024" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="27" spans="1:18">
+    <row r="1" spans="1:18" s="5" customFormat="1" ht="27">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -2902,7 +2409,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="1" spans="1:17">
+    <row r="2" spans="1:18" s="6" customFormat="1">
       <c r="A2" s="19" t="s">
         <v>18</v>
       </c>
@@ -2955,7 +2462,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:18">
       <c r="A3" s="12" t="s">
         <v>19</v>
       </c>
@@ -3008,7 +2515,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:18">
       <c r="A4" s="13" t="s">
         <v>35</v>
       </c>
@@ -3061,7 +2568,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:18">
       <c r="A5" s="12">
         <v>8086</v>
       </c>
@@ -3114,7 +2621,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" s="7" customFormat="1" ht="14.25" customHeight="1" spans="1:17">
+    <row r="6" spans="1:18" s="7" customFormat="1" ht="14.25" customHeight="1">
       <c r="A6" s="13">
         <v>1000</v>
       </c>
@@ -3167,7 +2674,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:18">
       <c r="A7" s="12" t="s">
         <v>37</v>
       </c>
@@ -3220,7 +2727,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:18">
       <c r="A8" s="12" t="s">
         <v>37</v>
       </c>
@@ -3270,7 +2777,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:17">
+    <row r="9" spans="1:18" ht="13.5" customHeight="1">
       <c r="A9" s="12" t="s">
         <v>37</v>
       </c>
@@ -3320,7 +2827,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:18">
       <c r="A10" s="12" t="s">
         <v>90</v>
       </c>
@@ -3373,7 +2880,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:18">
       <c r="A11" s="12" t="s">
         <v>102</v>
       </c>
@@ -3426,7 +2933,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:18">
       <c r="A12" s="12" t="s">
         <v>102</v>
       </c>
@@ -3479,7 +2986,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:18">
       <c r="A13" s="12">
         <v>1000</v>
       </c>
@@ -3532,7 +3039,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:18">
       <c r="A14" s="12" t="s">
         <v>130</v>
       </c>
@@ -3585,7 +3092,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:18">
       <c r="A15" s="6" t="s">
         <v>130</v>
       </c>
@@ -3638,7 +3145,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1" spans="1:17">
+    <row r="16" spans="1:18" ht="14.25" customHeight="1">
       <c r="A16" s="24" t="s">
         <v>145</v>
       </c>
@@ -3853,7 +3360,7 @@
       </c>
       <c r="R19" s="45"/>
     </row>
-    <row r="20" s="6" customFormat="1" spans="1:17">
+    <row r="20" spans="1:18" s="6" customFormat="1">
       <c r="A20" s="28" t="s">
         <v>35</v>
       </c>
@@ -3906,7 +3413,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" s="6" customFormat="1" spans="1:17">
+    <row r="21" spans="1:18" s="6" customFormat="1">
       <c r="A21" s="29" t="s">
         <v>145</v>
       </c>
@@ -3959,7 +3466,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" s="6" customFormat="1" spans="1:17">
+    <row r="22" spans="1:18" s="6" customFormat="1">
       <c r="A22" s="23" t="s">
         <v>145</v>
       </c>
@@ -4012,7 +3519,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" s="6" customFormat="1" spans="1:17">
+    <row r="23" spans="1:18" s="6" customFormat="1">
       <c r="A23" s="6" t="s">
         <v>145</v>
       </c>
@@ -4065,7 +3572,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" s="6" customFormat="1" spans="1:17">
+    <row r="24" spans="1:18" s="6" customFormat="1">
       <c r="A24" s="6" t="s">
         <v>145</v>
       </c>
@@ -4118,7 +3625,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" s="6" customFormat="1" ht="12" customHeight="1" spans="1:17">
+    <row r="25" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="6" t="s">
         <v>37</v>
       </c>
@@ -4171,7 +3678,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:18">
       <c r="A26" s="12" t="s">
         <v>90</v>
       </c>
@@ -4224,7 +3731,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" s="6" customFormat="1" spans="1:17">
+    <row r="27" spans="1:18" s="6" customFormat="1">
       <c r="A27" s="6" t="s">
         <v>92</v>
       </c>
@@ -4274,7 +3781,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="28" s="6" customFormat="1" spans="1:17">
+    <row r="28" spans="1:18" s="6" customFormat="1">
       <c r="A28" s="6" t="s">
         <v>130</v>
       </c>
@@ -4327,7 +3834,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" s="6" customFormat="1" spans="1:17">
+    <row r="29" spans="1:18" s="6" customFormat="1">
       <c r="A29" s="6" t="s">
         <v>221</v>
       </c>
@@ -4377,7 +3884,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" s="6" customFormat="1" spans="1:17">
+    <row r="30" spans="1:18" s="6" customFormat="1">
       <c r="A30" s="6" t="s">
         <v>221</v>
       </c>
@@ -4427,7 +3934,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:18">
       <c r="A31" s="12" t="s">
         <v>221</v>
       </c>
@@ -4480,7 +3987,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1" spans="1:17">
+    <row r="32" spans="1:18" ht="15" customHeight="1">
       <c r="A32" s="30" t="s">
         <v>244</v>
       </c>
@@ -4580,7 +4087,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1" spans="1:17">
+    <row r="34" spans="1:17" ht="15" customHeight="1">
       <c r="A34" s="30" t="s">
         <v>258</v>
       </c>
@@ -4680,7 +4187,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1" spans="1:17">
+    <row r="36" spans="1:17" ht="15" customHeight="1">
       <c r="A36" s="32" t="s">
         <v>265</v>
       </c>
@@ -4730,7 +4237,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="37" ht="14.25" customHeight="1" spans="1:17">
+    <row r="37" spans="1:17" ht="14.25" customHeight="1">
       <c r="A37" s="32" t="s">
         <v>265</v>
       </c>
@@ -4780,7 +4287,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="38" ht="14.1" customHeight="1" spans="1:17">
+    <row r="38" spans="1:17" ht="14.1" customHeight="1">
       <c r="A38" s="32" t="s">
         <v>265</v>
       </c>
@@ -4880,7 +4387,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="40" ht="14.1" customHeight="1" spans="1:17">
+    <row r="40" spans="1:17" ht="14.1" customHeight="1">
       <c r="A40" s="32" t="s">
         <v>265</v>
       </c>
@@ -4980,7 +4487,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="42" ht="14.1" customHeight="1" spans="1:17">
+    <row r="42" spans="1:17" ht="14.1" customHeight="1">
       <c r="A42" s="32" t="s">
         <v>265</v>
       </c>
@@ -5080,7 +4587,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="44" ht="14.1" customHeight="1" spans="1:17">
+    <row r="44" spans="1:17" ht="14.1" customHeight="1">
       <c r="A44" s="32" t="s">
         <v>265</v>
       </c>
@@ -5170,7 +4677,7 @@
       </c>
       <c r="Q45" s="49"/>
     </row>
-    <row r="46" customHeight="1" spans="1:17">
+    <row r="46" spans="1:17" ht="13.5" customHeight="1">
       <c r="A46" s="33" t="s">
         <v>280</v>
       </c>
@@ -5250,7 +4757,7 @@
       </c>
       <c r="Q47" s="49"/>
     </row>
-    <row r="48" ht="15" customHeight="1" spans="1:17">
+    <row r="48" spans="1:17" ht="15" customHeight="1">
       <c r="A48" s="34" t="s">
         <v>265</v>
       </c>
@@ -5300,7 +4807,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:27">
       <c r="A49" s="34" t="s">
         <v>265</v>
       </c>
@@ -5350,7 +4857,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="50" s="6" customFormat="1" ht="14.1" customHeight="1" spans="1:17">
+    <row r="50" spans="1:27" s="6" customFormat="1" ht="14.1" customHeight="1">
       <c r="A50" s="34" t="s">
         <v>289</v>
       </c>
@@ -5401,7 +4908,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="51" s="6" customFormat="1" spans="1:17">
+    <row r="51" spans="1:27" s="6" customFormat="1">
       <c r="A51" s="34" t="s">
         <v>289</v>
       </c>
@@ -5452,7 +4959,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="52" s="6" customFormat="1" ht="12.95" customHeight="1" spans="1:17">
+    <row r="52" spans="1:27" s="6" customFormat="1" ht="12.95" customHeight="1">
       <c r="A52" s="34" t="s">
         <v>289</v>
       </c>
@@ -5503,7 +5010,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:27">
       <c r="A53" s="12" t="s">
         <v>90</v>
       </c>
@@ -5556,7 +5063,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" s="6" customFormat="1" spans="1:27">
+    <row r="54" spans="1:27" s="6" customFormat="1">
       <c r="A54" s="12" t="s">
         <v>221</v>
       </c>
@@ -5619,7 +5126,7 @@
       <c r="Z54" s="12"/>
       <c r="AA54" s="12"/>
     </row>
-    <row r="55" s="6" customFormat="1" spans="1:27">
+    <row r="55" spans="1:27" s="6" customFormat="1">
       <c r="A55" s="12" t="s">
         <v>221</v>
       </c>
@@ -5682,7 +5189,7 @@
       <c r="Z55" s="12"/>
       <c r="AA55" s="12"/>
     </row>
-    <row r="56" s="6" customFormat="1" spans="1:17">
+    <row r="56" spans="1:27" s="6" customFormat="1">
       <c r="A56" s="6" t="s">
         <v>221</v>
       </c>
@@ -5735,7 +5242,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" s="6" customFormat="1" spans="1:17">
+    <row r="57" spans="1:27" s="6" customFormat="1">
       <c r="A57" s="6" t="s">
         <v>221</v>
       </c>
@@ -5788,7 +5295,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:27">
       <c r="A58" s="12" t="s">
         <v>37</v>
       </c>
@@ -5841,7 +5348,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" s="6" customFormat="1" spans="1:17">
+    <row r="59" spans="1:27" s="6" customFormat="1">
       <c r="A59" s="6" t="s">
         <v>92</v>
       </c>
@@ -5894,7 +5401,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="60" s="6" customFormat="1" spans="1:17">
+    <row r="60" spans="1:27" s="6" customFormat="1">
       <c r="A60" s="6" t="s">
         <v>221</v>
       </c>
@@ -5947,7 +5454,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="61" s="7" customFormat="1" customHeight="1" spans="1:17">
+    <row r="61" spans="1:27" s="7" customFormat="1" ht="13.5" customHeight="1">
       <c r="A61" s="13">
         <v>1000</v>
       </c>
@@ -6000,7 +5507,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:27">
       <c r="A62" s="12">
         <v>1000</v>
       </c>
@@ -6053,7 +5560,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:27">
       <c r="A63" s="12">
         <v>1000</v>
       </c>
@@ -6106,7 +5613,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:27">
       <c r="A64" s="6" t="s">
         <v>221</v>
       </c>
@@ -6210,7 +5717,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="66" s="6" customFormat="1" spans="1:17">
+    <row r="66" spans="1:17" s="6" customFormat="1">
       <c r="A66" s="6" t="s">
         <v>320</v>
       </c>
@@ -6263,7 +5770,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="67" s="6" customFormat="1" spans="1:17">
+    <row r="67" spans="1:17" s="6" customFormat="1">
       <c r="A67" s="6" t="s">
         <v>320</v>
       </c>
@@ -6313,7 +5820,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="68" s="6" customFormat="1" spans="1:17">
+    <row r="68" spans="1:17" s="6" customFormat="1">
       <c r="A68" s="6" t="s">
         <v>130</v>
       </c>
@@ -6469,7 +5976,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="71" ht="12" customHeight="1" spans="1:17">
+    <row r="71" spans="1:17" ht="12" customHeight="1">
       <c r="A71" s="44" t="s">
         <v>244</v>
       </c>
@@ -6571,7 +6078,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="73" ht="12" customHeight="1" spans="1:17">
+    <row r="73" spans="1:17" ht="12" customHeight="1">
       <c r="A73" s="44" t="s">
         <v>258</v>
       </c>
@@ -6673,7 +6180,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="75" ht="15" customHeight="1" spans="1:17">
+    <row r="75" spans="1:17" ht="15" customHeight="1">
       <c r="A75" s="34" t="s">
         <v>265</v>
       </c>
@@ -6775,7 +6282,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="77" ht="12.95" customHeight="1" spans="1:17">
+    <row r="77" spans="1:17" ht="12.95" customHeight="1">
       <c r="A77" s="34" t="s">
         <v>265</v>
       </c>
@@ -6867,7 +6374,7 @@
       <c r="P78" s="14"/>
       <c r="Q78" s="49"/>
     </row>
-    <row r="79" ht="18" customHeight="1" spans="1:17">
+    <row r="79" spans="1:17" ht="18" customHeight="1">
       <c r="A79" s="50" t="s">
         <v>280</v>
       </c>
@@ -6949,7 +6456,7 @@
       <c r="P80" s="53"/>
       <c r="Q80" s="49"/>
     </row>
-    <row r="81" ht="11.1" customHeight="1" spans="1:17">
+    <row r="81" spans="1:17" ht="11.1" customHeight="1">
       <c r="A81" s="34" t="s">
         <v>265</v>
       </c>
@@ -7000,7 +6507,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="82" s="6" customFormat="1" spans="1:17">
+    <row r="82" spans="1:17" s="6" customFormat="1">
       <c r="A82" s="34" t="s">
         <v>289</v>
       </c>
@@ -7051,7 +6558,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="83" s="6" customFormat="1" ht="12.95" customHeight="1" spans="1:17">
+    <row r="83" spans="1:17" s="6" customFormat="1" ht="12.95" customHeight="1">
       <c r="A83" s="34" t="s">
         <v>289</v>
       </c>
@@ -7102,7 +6609,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="84" s="6" customFormat="1" spans="1:17">
+    <row r="84" spans="1:17" s="6" customFormat="1">
       <c r="A84" s="34" t="s">
         <v>289</v>
       </c>
@@ -7153,7 +6660,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="85" ht="12.95" customHeight="1" spans="1:17">
+    <row r="85" spans="1:17" ht="12.95" customHeight="1">
       <c r="A85" s="34" t="s">
         <v>265</v>
       </c>
@@ -7204,7 +6711,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="86" ht="15" customHeight="1" spans="1:17">
+    <row r="86" spans="1:17" ht="15" customHeight="1">
       <c r="A86" s="34" t="s">
         <v>265</v>
       </c>
@@ -7255,7 +6762,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="87" ht="12" customHeight="1" spans="1:17">
+    <row r="87" spans="1:17" ht="12" customHeight="1">
       <c r="A87" s="32" t="s">
         <v>265</v>
       </c>
@@ -7357,7 +6864,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="89" ht="12" customHeight="1" spans="1:17">
+    <row r="89" spans="1:17" ht="12" customHeight="1">
       <c r="A89" s="32" t="s">
         <v>265</v>
       </c>
@@ -7459,7 +6966,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="91" ht="14.1" customHeight="1" spans="1:17">
+    <row r="91" spans="1:17" ht="14.1" customHeight="1">
       <c r="A91" s="32" t="s">
         <v>265</v>
       </c>
@@ -7510,7 +7017,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="92" s="6" customFormat="1" ht="12" customHeight="1" spans="1:17">
+    <row r="92" spans="1:17" s="6" customFormat="1" ht="12" customHeight="1">
       <c r="A92" s="6" t="s">
         <v>37</v>
       </c>
@@ -7563,7 +7070,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="93" s="8" customFormat="1" spans="1:17">
+    <row r="93" spans="1:17" s="8" customFormat="1">
       <c r="A93" s="6" t="s">
         <v>92</v>
       </c>
@@ -7614,7 +7121,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="94" s="8" customFormat="1" spans="1:17">
+    <row r="94" spans="1:17" s="8" customFormat="1">
       <c r="A94" s="6" t="s">
         <v>92</v>
       </c>
@@ -7665,7 +7172,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="95" s="8" customFormat="1" spans="1:17">
+    <row r="95" spans="1:17" s="8" customFormat="1">
       <c r="A95" s="6" t="s">
         <v>92</v>
       </c>
@@ -7716,7 +7223,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="96" s="8" customFormat="1" spans="1:17">
+    <row r="96" spans="1:17" s="8" customFormat="1">
       <c r="A96" s="6" t="s">
         <v>92</v>
       </c>
@@ -7767,7 +7274,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="97" s="6" customFormat="1" spans="1:17">
+    <row r="97" spans="1:17" s="6" customFormat="1">
       <c r="A97" s="6" t="s">
         <v>130</v>
       </c>
@@ -7820,7 +7327,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="98" s="6" customFormat="1" spans="1:17">
+    <row r="98" spans="1:17" s="6" customFormat="1">
       <c r="A98" s="6" t="s">
         <v>320</v>
       </c>
@@ -7870,7 +7377,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="99" s="6" customFormat="1" spans="1:17">
+    <row r="99" spans="1:17" s="6" customFormat="1">
       <c r="A99" s="6" t="s">
         <v>320</v>
       </c>
@@ -8325,7 +7832,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="108" s="6" customFormat="1" spans="1:17">
+    <row r="108" spans="1:17" s="6" customFormat="1">
       <c r="A108" s="6" t="s">
         <v>130</v>
       </c>
@@ -8423,7 +7930,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="110" s="6" customFormat="1" spans="1:17">
+    <row r="110" spans="1:17" s="6" customFormat="1">
       <c r="A110" s="6" t="s">
         <v>130</v>
       </c>
@@ -8572,7 +8079,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="113" spans="1:17">
+    <row r="113" spans="1:18">
       <c r="A113" s="12" t="s">
         <v>130</v>
       </c>
@@ -8623,7 +8130,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="114" spans="1:17">
+    <row r="114" spans="1:18">
       <c r="A114" s="12" t="s">
         <v>130</v>
       </c>
@@ -8674,7 +8181,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="115" spans="1:17">
+    <row r="115" spans="1:18">
       <c r="A115" s="12" t="s">
         <v>130</v>
       </c>
@@ -8725,7 +8232,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="116" s="7" customFormat="1" ht="14.25" customHeight="1" spans="1:17">
+    <row r="116" spans="1:18" s="7" customFormat="1" ht="14.25" customHeight="1">
       <c r="A116" s="13">
         <v>1000</v>
       </c>
@@ -8778,7 +8285,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="117" s="7" customFormat="1" customHeight="1" spans="1:17">
+    <row r="117" spans="1:18" s="7" customFormat="1" ht="13.5" customHeight="1">
       <c r="A117" s="13">
         <v>1000</v>
       </c>
@@ -9371,7 +8878,7 @@
       </c>
       <c r="R127" s="45"/>
     </row>
-    <row r="128" customHeight="1" spans="1:18">
+    <row r="128" spans="1:18" ht="13.5" customHeight="1">
       <c r="A128" s="28" t="s">
         <v>145</v>
       </c>
@@ -9425,7 +8932,7 @@
       </c>
       <c r="R128" s="45"/>
     </row>
-    <row r="129" ht="14.1" customHeight="1" spans="1:17">
+    <row r="129" spans="1:1024" ht="14.1" customHeight="1">
       <c r="A129" s="29" t="s">
         <v>145</v>
       </c>
@@ -9478,7 +8985,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="130" ht="12.95" customHeight="1" spans="1:17">
+    <row r="130" spans="1:1024" ht="12.95" customHeight="1">
       <c r="A130" s="24" t="s">
         <v>145</v>
       </c>
@@ -9531,7 +9038,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="131" s="6" customFormat="1" spans="1:17">
+    <row r="131" spans="1:1024" s="6" customFormat="1">
       <c r="A131" s="29" t="s">
         <v>145</v>
       </c>
@@ -9584,7 +9091,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="132" s="6" customFormat="1" spans="1:17">
+    <row r="132" spans="1:1024" s="6" customFormat="1">
       <c r="A132" s="23" t="s">
         <v>145</v>
       </c>
@@ -9637,7 +9144,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="133" s="6" customFormat="1" spans="1:17">
+    <row r="133" spans="1:1024" s="6" customFormat="1">
       <c r="A133" s="29" t="s">
         <v>145</v>
       </c>
@@ -9690,7 +9197,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="134" s="6" customFormat="1" spans="1:17">
+    <row r="134" spans="1:1024" s="6" customFormat="1">
       <c r="A134" s="23" t="s">
         <v>145</v>
       </c>
@@ -9743,7 +9250,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="135" s="6" customFormat="1" spans="1:17">
+    <row r="135" spans="1:1024" s="6" customFormat="1">
       <c r="A135" s="6" t="s">
         <v>145</v>
       </c>
@@ -9796,7 +9303,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="136" s="6" customFormat="1" spans="1:17">
+    <row r="136" spans="1:1024" s="6" customFormat="1">
       <c r="A136" s="6" t="s">
         <v>145</v>
       </c>
@@ -9849,7 +9356,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="137" s="6" customFormat="1" spans="1:17">
+    <row r="137" spans="1:1024" s="6" customFormat="1">
       <c r="A137" s="6" t="s">
         <v>145</v>
       </c>
@@ -9902,7 +9409,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="138" s="6" customFormat="1" spans="1:17">
+    <row r="138" spans="1:1024" s="6" customFormat="1">
       <c r="A138" s="6" t="s">
         <v>145</v>
       </c>
@@ -9955,7 +9462,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="139" spans="1:17">
+    <row r="139" spans="1:1024">
       <c r="A139" s="12" t="s">
         <v>37</v>
       </c>
@@ -10008,7 +9515,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="140" spans="1:17">
+    <row r="140" spans="1:1024">
       <c r="A140" s="12" t="s">
         <v>37</v>
       </c>
@@ -10061,7 +9568,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="141" s="9" customFormat="1" spans="1:17">
+    <row r="141" spans="1:1024" s="9" customFormat="1">
       <c r="A141" s="13" t="s">
         <v>35</v>
       </c>
@@ -10114,7 +9621,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="142" s="9" customFormat="1" spans="1:17">
+    <row r="142" spans="1:1024" s="9" customFormat="1">
       <c r="A142" s="13" t="s">
         <v>35</v>
       </c>
@@ -10167,7 +9674,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="143" spans="1:17">
+    <row r="143" spans="1:1024">
       <c r="A143" s="12" t="s">
         <v>130</v>
       </c>
@@ -10220,7 +9727,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="144" s="10" customFormat="1" spans="1:1024">
+    <row r="144" spans="1:1024" s="10" customFormat="1">
       <c r="A144" s="10">
         <v>1000</v>
       </c>
@@ -11280,7 +10787,7 @@
       <c r="AMI144" s="65"/>
       <c r="AMJ144" s="65"/>
     </row>
-    <row r="145" s="10" customFormat="1" spans="1:1024">
+    <row r="145" spans="1:1024" s="10" customFormat="1">
       <c r="A145" s="10">
         <v>1000</v>
       </c>
@@ -12338,7 +11845,7 @@
       <c r="AMI145" s="65"/>
       <c r="AMJ145" s="65"/>
     </row>
-    <row r="146" s="10" customFormat="1" spans="1:1024">
+    <row r="146" spans="1:1024" s="10" customFormat="1">
       <c r="A146" s="10">
         <v>1000</v>
       </c>
@@ -13396,7 +12903,7 @@
       <c r="AMI146" s="65"/>
       <c r="AMJ146" s="65"/>
     </row>
-    <row r="147" s="10" customFormat="1" spans="1:1024">
+    <row r="147" spans="1:1024" s="10" customFormat="1">
       <c r="A147" s="10">
         <v>1000</v>
       </c>
@@ -14454,7 +13961,7 @@
       <c r="AMI147" s="65"/>
       <c r="AMJ147" s="65"/>
     </row>
-    <row r="148" s="11" customFormat="1" spans="1:17">
+    <row r="148" spans="1:1024" s="11" customFormat="1">
       <c r="A148" s="11" t="s">
         <v>92</v>
       </c>
@@ -14505,7 +14012,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="149" s="11" customFormat="1" spans="1:17">
+    <row r="149" spans="1:1024" s="11" customFormat="1">
       <c r="A149" s="11" t="s">
         <v>92</v>
       </c>
@@ -14556,7 +14063,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="150" s="11" customFormat="1" spans="1:17">
+    <row r="150" spans="1:1024" s="11" customFormat="1">
       <c r="A150" s="11" t="s">
         <v>92</v>
       </c>
@@ -14607,7 +14114,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="151" s="11" customFormat="1" spans="1:17">
+    <row r="151" spans="1:1024" s="11" customFormat="1">
       <c r="A151" s="11" t="s">
         <v>92</v>
       </c>
@@ -14658,7 +14165,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="152" s="11" customFormat="1" spans="1:17">
+    <row r="152" spans="1:1024" s="11" customFormat="1">
       <c r="A152" s="11" t="s">
         <v>92</v>
       </c>
@@ -14709,7 +14216,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="153" s="11" customFormat="1" spans="1:17">
+    <row r="153" spans="1:1024" s="11" customFormat="1">
       <c r="A153" s="11" t="s">
         <v>92</v>
       </c>
@@ -14760,7 +14267,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="154" s="11" customFormat="1" spans="1:17">
+    <row r="154" spans="1:1024" s="11" customFormat="1">
       <c r="A154" s="11" t="s">
         <v>92</v>
       </c>
@@ -14811,7 +14318,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="155" s="11" customFormat="1" spans="1:17">
+    <row r="155" spans="1:1024" s="11" customFormat="1">
       <c r="A155" s="11" t="s">
         <v>92</v>
       </c>
@@ -14862,7 +14369,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="156" spans="1:17">
+    <row r="156" spans="1:1024">
       <c r="A156" s="12" t="s">
         <v>145</v>
       </c>
@@ -14913,7 +14420,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="157" spans="1:17">
+    <row r="157" spans="1:1024">
       <c r="A157" s="12" t="s">
         <v>145</v>
       </c>
@@ -14964,7 +14471,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="158" spans="1:17">
+    <row r="158" spans="1:1024">
       <c r="A158" s="12" t="s">
         <v>145</v>
       </c>
@@ -15015,7 +14522,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="159" spans="1:17">
+    <row r="159" spans="1:1024">
       <c r="A159" s="12" t="s">
         <v>145</v>
       </c>
@@ -15066,7 +14573,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="160" spans="1:17">
+    <row r="160" spans="1:1024">
       <c r="A160" s="12" t="s">
         <v>145</v>
       </c>
@@ -15117,7 +14624,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="161" spans="1:17">
+    <row r="161" spans="1:1024">
       <c r="A161" s="12" t="s">
         <v>145</v>
       </c>
@@ -15168,7 +14675,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="162" spans="1:17">
+    <row r="162" spans="1:1024">
       <c r="A162" s="12" t="s">
         <v>145</v>
       </c>
@@ -15219,7 +14726,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="163" spans="1:17">
+    <row r="163" spans="1:1024">
       <c r="A163" s="12" t="s">
         <v>145</v>
       </c>
@@ -15270,7 +14777,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="164" ht="14.25" customHeight="1" spans="1:17">
+    <row r="164" spans="1:1024" ht="14.25" customHeight="1">
       <c r="A164" s="24" t="s">
         <v>145</v>
       </c>
@@ -15323,7 +14830,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="165" ht="14.1" customHeight="1" spans="1:17">
+    <row r="165" spans="1:1024" ht="14.1" customHeight="1">
       <c r="A165" s="29" t="s">
         <v>145</v>
       </c>
@@ -15376,7 +14883,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="166" ht="12.95" customHeight="1" spans="1:17">
+    <row r="166" spans="1:1024" ht="12.95" customHeight="1">
       <c r="A166" s="24" t="s">
         <v>145</v>
       </c>
@@ -15429,7 +14936,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="167" s="9" customFormat="1" spans="1:17">
+    <row r="167" spans="1:1024" s="9" customFormat="1">
       <c r="A167" s="13" t="s">
         <v>35</v>
       </c>
@@ -15480,7 +14987,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="168" s="9" customFormat="1" spans="1:17">
+    <row r="168" spans="1:1024" s="9" customFormat="1">
       <c r="A168" s="13" t="s">
         <v>35</v>
       </c>
@@ -15531,7 +15038,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="169" spans="1:17">
+    <row r="169" spans="1:1024">
       <c r="A169" s="12" t="s">
         <v>145</v>
       </c>
@@ -15582,7 +15089,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="170" spans="1:17">
+    <row r="170" spans="1:1024">
       <c r="A170" s="12" t="s">
         <v>145</v>
       </c>
@@ -15633,7 +15140,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="171" spans="1:17">
+    <row r="171" spans="1:1024">
       <c r="A171" s="12" t="s">
         <v>130</v>
       </c>
@@ -15684,7 +15191,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="172" spans="1:17">
+    <row r="172" spans="1:1024">
       <c r="A172" s="12" t="s">
         <v>130</v>
       </c>
@@ -15732,7 +15239,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="173" spans="1:17">
+    <row r="173" spans="1:1024">
       <c r="A173" s="12" t="s">
         <v>130</v>
       </c>
@@ -15780,7 +15287,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="174" s="10" customFormat="1" spans="1:1024">
+    <row r="174" spans="1:1024" s="10" customFormat="1">
       <c r="A174" s="10">
         <v>1000</v>
       </c>
@@ -16837,7 +16344,7 @@
       <c r="AMI174" s="65"/>
       <c r="AMJ174" s="65"/>
     </row>
-    <row r="175" s="10" customFormat="1" spans="1:1024">
+    <row r="175" spans="1:1024" s="10" customFormat="1">
       <c r="A175" s="10">
         <v>1000</v>
       </c>
@@ -17892,7 +17399,7 @@
       <c r="AMI175" s="65"/>
       <c r="AMJ175" s="65"/>
     </row>
-    <row r="176" s="10" customFormat="1" spans="1:1024">
+    <row r="176" spans="1:1024" s="10" customFormat="1">
       <c r="A176" s="10">
         <v>1000</v>
       </c>
@@ -18947,7 +18454,7 @@
       <c r="AMI176" s="65"/>
       <c r="AMJ176" s="65"/>
     </row>
-    <row r="177" s="10" customFormat="1" spans="1:1024">
+    <row r="177" spans="1:1024" s="10" customFormat="1">
       <c r="A177" s="10">
         <v>1000</v>
       </c>
@@ -20002,7 +19509,7 @@
       <c r="AMI177" s="65"/>
       <c r="AMJ177" s="65"/>
     </row>
-    <row r="178" s="6" customFormat="1" spans="1:17">
+    <row r="178" spans="1:1024" s="6" customFormat="1">
       <c r="A178" s="23" t="s">
         <v>145</v>
       </c>
@@ -20052,7 +19559,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="179" s="6" customFormat="1" spans="1:17">
+    <row r="179" spans="1:1024" s="6" customFormat="1">
       <c r="A179" s="23" t="s">
         <v>145</v>
       </c>
@@ -20102,7 +19609,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="180" s="6" customFormat="1" spans="1:17">
+    <row r="180" spans="1:1024" s="6" customFormat="1">
       <c r="A180" s="23" t="s">
         <v>145</v>
       </c>
@@ -20152,7 +19659,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="181" s="6" customFormat="1" spans="1:17">
+    <row r="181" spans="1:1024" s="6" customFormat="1">
       <c r="A181" s="23" t="s">
         <v>145</v>
       </c>
@@ -20202,7 +19709,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="182" s="6" customFormat="1" spans="1:17">
+    <row r="182" spans="1:1024" s="6" customFormat="1">
       <c r="A182" s="23" t="s">
         <v>145</v>
       </c>
@@ -20252,7 +19759,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="183" s="6" customFormat="1" spans="1:17">
+    <row r="183" spans="1:1024" s="6" customFormat="1">
       <c r="A183" s="23" t="s">
         <v>145</v>
       </c>
@@ -20302,7 +19809,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="184" spans="1:17">
+    <row r="184" spans="1:1024">
       <c r="A184" s="12" t="s">
         <v>102</v>
       </c>
@@ -20355,7 +19862,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="185" spans="1:17">
+    <row r="185" spans="1:1024">
       <c r="A185" s="12" t="s">
         <v>102</v>
       </c>
@@ -20408,7 +19915,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="186" spans="1:17">
+    <row r="186" spans="1:1024">
       <c r="A186" s="12" t="s">
         <v>102</v>
       </c>
@@ -20461,81 +19968,131 @@
         <v>475</v>
       </c>
     </row>
-    <row r="190" spans="7:7">
+    <row r="187" spans="1:1024">
+      <c r="A187" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="B187" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="C187" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="D187" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="E187" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F187" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G187" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="H187" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="I187" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="J187" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="K187" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="L187" s="69" t="s">
+        <v>496</v>
+      </c>
+      <c r="M187" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="N187" s="68" t="s">
+        <v>492</v>
+      </c>
+      <c r="O187" s="68" t="s">
+        <v>493</v>
+      </c>
+      <c r="P187" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q187" s="67" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1024">
       <c r="G190" s="62"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q186">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:Q186"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E32:E52 E54:E55 E71:E91">
       <formula1>"aarch64,x86_64"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="Q11" r:id="rId1" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/aarch64/Packages/cuda_11.4.2_470.57.02_linux_sbsa.run"/>
-    <hyperlink ref="Q12" r:id="rId1" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/aarch64/Packages/cuda_11.4.2_470.57.02_linux_sbsa.run"/>
-    <hyperlink ref="Q28" r:id="rId2" display="inbox"/>
-    <hyperlink ref="Q65" r:id="rId3" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/aarch64/Packages/cuda_11.6.2_510.47.03_linux_sbsa.run"/>
-    <hyperlink ref="Q93" r:id="rId4" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/qla2xxx-10.02.06.04_k-1_OpenEuler.zip"/>
-    <hyperlink ref="Q94" r:id="rId4" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/qla2xxx-10.02.06.04_k-1_OpenEuler.zip"/>
-    <hyperlink ref="Q95" r:id="rId4" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/qla2xxx-10.02.06.04_k-1_OpenEuler.zip"/>
-    <hyperlink ref="Q96" r:id="rId4" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/qla2xxx-10.02.06.04_k-1_OpenEuler.zip"/>
-    <hyperlink ref="Q97" r:id="rId2" display="inbox"/>
-    <hyperlink ref="Q148" r:id="rId4" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/qla2xxx-10.02.06.04_k-1_OpenEuler.zip"/>
-    <hyperlink ref="Q149" r:id="rId4" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/qla2xxx-10.02.06.04_k-1_OpenEuler.zip"/>
-    <hyperlink ref="Q150" r:id="rId4" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/qla2xxx-10.02.06.04_k-1_OpenEuler.zip"/>
-    <hyperlink ref="Q151" r:id="rId4" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/qla2xxx-10.02.06.04_k-1_OpenEuler.zip"/>
-    <hyperlink ref="Q152" r:id="rId4" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/qla2xxx-10.02.06.04_k-1_OpenEuler.zip"/>
-    <hyperlink ref="Q153" r:id="rId4" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/qla2xxx-10.02.06.04_k-1_OpenEuler.zip"/>
-    <hyperlink ref="Q154" r:id="rId4" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/qla2xxx-10.02.06.04_k-1_OpenEuler.zip"/>
-    <hyperlink ref="Q155" r:id="rId4" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/qla2xxx-10.02.06.04_k-1_OpenEuler.zip"/>
-    <hyperlink ref="Q156" r:id="rId5" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/MLNX_OFED_LINUX-5.7-1.0.2.0-openeuler20.03sp3-aarch64.tgz"/>
-    <hyperlink ref="Q157" r:id="rId6" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/MLNX_OFED_LINUX-5.7-1.0.2.0-openeuler20.03sp3-x86_64.tgz"/>
-    <hyperlink ref="Q158" r:id="rId5" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/MLNX_OFED_LINUX-5.7-1.0.2.0-openeuler20.03sp3-aarch64.tgz"/>
-    <hyperlink ref="Q159" r:id="rId6" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/MLNX_OFED_LINUX-5.7-1.0.2.0-openeuler20.03sp3-x86_64.tgz"/>
-    <hyperlink ref="Q160" r:id="rId5" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/MLNX_OFED_LINUX-5.7-1.0.2.0-openeuler20.03sp3-aarch64.tgz"/>
-    <hyperlink ref="Q161" r:id="rId6" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/MLNX_OFED_LINUX-5.7-1.0.2.0-openeuler20.03sp3-x86_64.tgz"/>
-    <hyperlink ref="Q162" r:id="rId5" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/MLNX_OFED_LINUX-5.7-1.0.2.0-openeuler20.03sp3-aarch64.tgz"/>
-    <hyperlink ref="Q163" r:id="rId6" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/MLNX_OFED_LINUX-5.7-1.0.2.0-openeuler20.03sp3-x86_64.tgz"/>
-    <hyperlink ref="Q27" r:id="rId2" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/qla2xxx-10.02.06.02_k-1dkms.zip"/>
-    <hyperlink ref="Q167" r:id="rId7" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/igb-5.11.4.tar.gz"/>
-    <hyperlink ref="Q168" r:id="rId7" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/igb-5.11.4.tar.gz"/>
-    <hyperlink ref="Q169" r:id="rId5" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/MLNX_OFED_LINUX-5.7-1.0.2.0-openeuler20.03sp3-aarch64.tgz"/>
-    <hyperlink ref="Q170" r:id="rId6" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/MLNX_OFED_LINUX-5.7-1.0.2.0-openeuler20.03sp3-x86_64.tgz"/>
-    <hyperlink ref="Q171" r:id="rId8" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/MR_LINUX_DRIVER_7.22-07.722.02.00-2.tgz"/>
-    <hyperlink ref="Q172:Q173" r:id="rId8" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/MR_LINUX_DRIVER_7.22-07.722.02.00-2.tgz"/>
-    <hyperlink ref="Q174" r:id="rId8" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/MR_LINUX_DRIVER_7.22-07.722.02.00-2.tgz"/>
-    <hyperlink ref="Q175" r:id="rId8" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/MR_LINUX_DRIVER_7.22-07.722.02.00-2.tgz"/>
-    <hyperlink ref="Q176" r:id="rId8" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/MR_LINUX_DRIVER_7.22-07.722.02.00-2.tgz"/>
-    <hyperlink ref="Q177" r:id="rId8" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/MR_LINUX_DRIVER_7.22-07.722.02.00-2.tgz"/>
-    <hyperlink ref="Q178:Q180" r:id="rId6" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/MLNX_OFED_LINUX-5.7-1.0.2.0-openeuler20.03sp3-x86_64.tgz"/>
-    <hyperlink ref="Q181:Q183" r:id="rId5" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/MLNX_OFED_LINUX-5.7-1.0.2.0-openeuler20.03sp3-aarch64.tgz"/>
-    <hyperlink ref="Q178" r:id="rId6" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/MLNX_OFED_LINUX-5.7-1.0.2.0-openeuler20.03sp3-x86_64.tgz"/>
-    <hyperlink ref="Q181" r:id="rId5" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/MLNX_OFED_LINUX-5.7-1.0.2.0-openeuler20.03sp3-aarch64.tgz"/>
+    <hyperlink ref="Q11" r:id="rId1"/>
+    <hyperlink ref="Q12" r:id="rId2"/>
+    <hyperlink ref="Q28" r:id="rId3"/>
+    <hyperlink ref="Q65" r:id="rId4"/>
+    <hyperlink ref="Q93" r:id="rId5"/>
+    <hyperlink ref="Q94" r:id="rId6"/>
+    <hyperlink ref="Q95" r:id="rId7"/>
+    <hyperlink ref="Q96" r:id="rId8"/>
+    <hyperlink ref="Q97" r:id="rId9"/>
+    <hyperlink ref="Q148" r:id="rId10"/>
+    <hyperlink ref="Q149" r:id="rId11"/>
+    <hyperlink ref="Q150" r:id="rId12"/>
+    <hyperlink ref="Q151" r:id="rId13"/>
+    <hyperlink ref="Q152" r:id="rId14"/>
+    <hyperlink ref="Q153" r:id="rId15"/>
+    <hyperlink ref="Q154" r:id="rId16"/>
+    <hyperlink ref="Q155" r:id="rId17"/>
+    <hyperlink ref="Q156" r:id="rId18"/>
+    <hyperlink ref="Q157" r:id="rId19"/>
+    <hyperlink ref="Q158" r:id="rId20"/>
+    <hyperlink ref="Q159" r:id="rId21"/>
+    <hyperlink ref="Q160" r:id="rId22"/>
+    <hyperlink ref="Q161" r:id="rId23"/>
+    <hyperlink ref="Q162" r:id="rId24"/>
+    <hyperlink ref="Q163" r:id="rId25"/>
+    <hyperlink ref="Q27" r:id="rId26"/>
+    <hyperlink ref="Q167" r:id="rId27"/>
+    <hyperlink ref="Q168" r:id="rId28"/>
+    <hyperlink ref="Q169" r:id="rId29"/>
+    <hyperlink ref="Q170" r:id="rId30"/>
+    <hyperlink ref="Q171" r:id="rId31"/>
+    <hyperlink ref="Q172:Q173" r:id="rId32" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/MR_LINUX_DRIVER_7.22-07.722.02.00-2.tgz"/>
+    <hyperlink ref="Q174" r:id="rId33"/>
+    <hyperlink ref="Q175" r:id="rId34"/>
+    <hyperlink ref="Q176" r:id="rId35"/>
+    <hyperlink ref="Q177" r:id="rId36"/>
+    <hyperlink ref="Q178:Q180" r:id="rId37" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/MLNX_OFED_LINUX-5.7-1.0.2.0-openeuler20.03sp3-x86_64.tgz"/>
+    <hyperlink ref="Q181:Q183" r:id="rId38" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/MLNX_OFED_LINUX-5.7-1.0.2.0-openeuler20.03sp3-aarch64.tgz"/>
+    <hyperlink ref="Q178" r:id="rId39"/>
+    <hyperlink ref="Q181" r:id="rId40"/>
+    <hyperlink ref="Q187" r:id="rId41"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId42"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="16384" width="9" style="4"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.748031496062992" right="0.748031496062992" top="0.984251968503937" bottom="0.984251968503937" header="0.511811023622047" footer="0.511811023622047"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="0.98425196850393704" bottom="0.98425196850393704" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G&amp;C&amp;F&amp;R文档密级</oddHeader>
@@ -20546,15 +20103,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMJ10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="29.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.125" style="1" customWidth="1"/>
@@ -20571,9 +20127,10 @@
       </c>
       <c r="C1" s="3"/>
     </row>
-    <row r="10" ht="27" customHeight="1"/>
+    <row r="10" spans="1:3" ht="27" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;F&amp;R文档密级</oddHeader>

--- a/data/compatibility/openEuler20.03-LTS-SP3上两类平台板卡兼容清单.xlsx
+++ b/data/compatibility/openEuler20.03-LTS-SP3上两类平台板卡兼容清单.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lwx1124290\Desktop\1017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lwx1124290\Desktop\1019\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2997" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3014" uniqueCount="499">
   <si>
     <t>vendorID</t>
   </si>
@@ -1618,6 +1618,10 @@
       <t>0.03-LTS-SP3/contrib/drivers/source/Packages/ice-1.9.11.tar.gz</t>
     </r>
     <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.10.18</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2328,7 +2332,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A163" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J189" sqref="J189"/>
+      <selection pane="bottomLeft" activeCell="H191" sqref="H191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -20021,6 +20025,59 @@
         <v>497</v>
       </c>
     </row>
+    <row r="188" spans="1:1024">
+      <c r="A188" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="B188" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="C188" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="D188" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="E188" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F188" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G188" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="H188" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="I188" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="J188" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="K188" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="L188" s="69" t="s">
+        <v>496</v>
+      </c>
+      <c r="M188" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="N188" s="68" t="s">
+        <v>492</v>
+      </c>
+      <c r="O188" s="68" t="s">
+        <v>493</v>
+      </c>
+      <c r="P188" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q188" s="67" t="s">
+        <v>497</v>
+      </c>
+    </row>
     <row r="190" spans="1:1024">
       <c r="G190" s="62"/>
     </row>
@@ -20074,9 +20131,10 @@
     <hyperlink ref="Q178" r:id="rId39"/>
     <hyperlink ref="Q181" r:id="rId40"/>
     <hyperlink ref="Q187" r:id="rId41"/>
+    <hyperlink ref="Q188" r:id="rId42"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId42"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId43"/>
 </worksheet>
 </file>
 

--- a/data/compatibility/openEuler20.03-LTS-SP3上两类平台板卡兼容清单.xlsx
+++ b/data/compatibility/openEuler20.03-LTS-SP3上两类平台板卡兼容清单.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lwx1124290\Desktop\1028\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="openEuler20.03-LTS-SP3两类平台板卡兼容性" sheetId="1" r:id="rId1"/>
@@ -12,14 +17,14 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'openEuler20.03-LTS-SP3两类平台板卡兼容性'!$A$1:$Q$190</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'openEuler20.03-LTS-SP3两类平台板卡兼容性'!$A$1:$Q$191</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3048" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3065" uniqueCount="511">
   <si>
     <t>vendorID</t>
   </si>
@@ -1637,18 +1642,28 @@
   <si>
     <t>问题</t>
   </si>
+  <si>
+    <t>x86_64</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.10.27</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>799B0EE19AC63A0F4A60F165D1EBEAA95E75C497</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>394K</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1711,150 +1726,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1897,194 +1774,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2122,249 +1813,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="52">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2377,16 +1829,16 @@
   </cellStyleXfs>
   <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="51">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2478,8 +1930,8 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2490,8 +1942,8 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="10" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2510,7 +1962,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2536,63 +1988,17 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="10" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="52">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 3" xfId="50"/>
-    <cellStyle name="常规 4" xfId="51"/>
+    <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="常规 3" xfId="3"/>
+    <cellStyle name="常规 4" xfId="4"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -2665,6 +2071,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2922,21 +2331,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ198"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="K196" sqref="K196"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G205" sqref="G205"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.125" style="12" customWidth="1"/>
     <col min="2" max="2" width="10.625" style="13" customWidth="1"/>
@@ -2958,7 +2366,7 @@
     <col min="19" max="1024" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="27" spans="1:18">
+    <row r="1" spans="1:18" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -3014,7 +2422,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" s="6" customFormat="1" spans="1:17">
+    <row r="2" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="19" t="s">
         <v>18</v>
       </c>
@@ -3067,7 +2475,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
         <v>19</v>
       </c>
@@ -3120,7 +2528,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
         <v>35</v>
       </c>
@@ -3173,7 +2581,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
         <v>8086</v>
       </c>
@@ -3226,7 +2634,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" s="7" customFormat="1" ht="14.25" customHeight="1" spans="1:17">
+    <row r="6" spans="1:18" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13">
         <v>1000</v>
       </c>
@@ -3279,7 +2687,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="12" t="s">
         <v>37</v>
       </c>
@@ -3332,7 +2740,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="12" t="s">
         <v>37</v>
       </c>
@@ -3382,7 +2790,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:17">
+    <row r="9" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12" t="s">
         <v>37</v>
       </c>
@@ -3432,7 +2840,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A10" s="12" t="s">
         <v>90</v>
       </c>
@@ -3485,7 +2893,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" s="12" t="s">
         <v>102</v>
       </c>
@@ -3538,7 +2946,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" s="12" t="s">
         <v>102</v>
       </c>
@@ -3591,7 +2999,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="12">
         <v>1000</v>
       </c>
@@ -3644,7 +3052,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" s="12" t="s">
         <v>130</v>
       </c>
@@ -3697,7 +3105,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
         <v>130</v>
       </c>
@@ -3750,7 +3158,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1" spans="1:17">
+    <row r="16" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="24" t="s">
         <v>145</v>
       </c>
@@ -3803,7 +3211,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" s="26" t="s">
         <v>35</v>
       </c>
@@ -3857,7 +3265,7 @@
       </c>
       <c r="R17" s="45"/>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18" s="28" t="s">
         <v>145</v>
       </c>
@@ -3911,7 +3319,7 @@
       </c>
       <c r="R18" s="45"/>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19" s="28" t="s">
         <v>145</v>
       </c>
@@ -3965,7 +3373,7 @@
       </c>
       <c r="R19" s="45"/>
     </row>
-    <row r="20" s="6" customFormat="1" spans="1:17">
+    <row r="20" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="28" t="s">
         <v>35</v>
       </c>
@@ -4018,7 +3426,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" s="6" customFormat="1" spans="1:17">
+    <row r="21" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="29" t="s">
         <v>145</v>
       </c>
@@ -4071,7 +3479,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" s="6" customFormat="1" spans="1:17">
+    <row r="22" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="23" t="s">
         <v>145</v>
       </c>
@@ -4124,7 +3532,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" s="6" customFormat="1" spans="1:17">
+    <row r="23" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6" t="s">
         <v>145</v>
       </c>
@@ -4177,7 +3585,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" s="6" customFormat="1" spans="1:17">
+    <row r="24" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6" t="s">
         <v>145</v>
       </c>
@@ -4230,7 +3638,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" s="6" customFormat="1" ht="12" customHeight="1" spans="1:17">
+    <row r="25" spans="1:18" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
         <v>37</v>
       </c>
@@ -4283,7 +3691,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A26" s="12" t="s">
         <v>90</v>
       </c>
@@ -4336,7 +3744,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" s="6" customFormat="1" spans="1:17">
+    <row r="27" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6" t="s">
         <v>92</v>
       </c>
@@ -4386,7 +3794,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="28" s="6" customFormat="1" spans="1:17">
+    <row r="28" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6" t="s">
         <v>130</v>
       </c>
@@ -4439,7 +3847,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" s="6" customFormat="1" spans="1:17">
+    <row r="29" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
         <v>221</v>
       </c>
@@ -4489,7 +3897,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" s="6" customFormat="1" spans="1:17">
+    <row r="30" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6" t="s">
         <v>221</v>
       </c>
@@ -4539,7 +3947,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A31" s="12" t="s">
         <v>221</v>
       </c>
@@ -4592,7 +4000,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1" spans="1:17">
+    <row r="32" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="30" t="s">
         <v>244</v>
       </c>
@@ -4642,7 +4050,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33" s="30" t="s">
         <v>244</v>
       </c>
@@ -4692,7 +4100,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1" spans="1:17">
+    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="30" t="s">
         <v>258</v>
       </c>
@@ -4742,7 +4150,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35" s="30" t="s">
         <v>258</v>
       </c>
@@ -4792,7 +4200,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1" spans="1:17">
+    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="32" t="s">
         <v>265</v>
       </c>
@@ -4842,7 +4250,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="37" ht="14.25" customHeight="1" spans="1:17">
+    <row r="37" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="32" t="s">
         <v>265</v>
       </c>
@@ -4892,7 +4300,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="38" ht="14.1" customHeight="1" spans="1:17">
+    <row r="38" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="32" t="s">
         <v>265</v>
       </c>
@@ -4942,7 +4350,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A39" s="32" t="s">
         <v>265</v>
       </c>
@@ -4992,7 +4400,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="40" ht="14.1" customHeight="1" spans="1:17">
+    <row r="40" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="32" t="s">
         <v>265</v>
       </c>
@@ -5042,7 +4450,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A41" s="32" t="s">
         <v>265</v>
       </c>
@@ -5092,7 +4500,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="42" ht="14.1" customHeight="1" spans="1:17">
+    <row r="42" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="32" t="s">
         <v>265</v>
       </c>
@@ -5142,7 +4550,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A43" s="32" t="s">
         <v>265</v>
       </c>
@@ -5192,7 +4600,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="44" ht="14.1" customHeight="1" spans="1:17">
+    <row r="44" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="32" t="s">
         <v>265</v>
       </c>
@@ -5242,7 +4650,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A45" s="33" t="s">
         <v>280</v>
       </c>
@@ -5282,7 +4690,7 @@
       </c>
       <c r="Q45" s="49"/>
     </row>
-    <row r="46" customHeight="1" spans="1:17">
+    <row r="46" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="33" t="s">
         <v>280</v>
       </c>
@@ -5322,7 +4730,7 @@
       </c>
       <c r="Q46" s="49"/>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A47" s="33" t="s">
         <v>280</v>
       </c>
@@ -5362,7 +4770,7 @@
       </c>
       <c r="Q47" s="49"/>
     </row>
-    <row r="48" ht="15" customHeight="1" spans="1:17">
+    <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="34" t="s">
         <v>265</v>
       </c>
@@ -5412,7 +4820,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A49" s="34" t="s">
         <v>265</v>
       </c>
@@ -5462,7 +4870,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="50" s="6" customFormat="1" ht="14.1" customHeight="1" spans="1:17">
+    <row r="50" spans="1:27" s="6" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="34" t="s">
         <v>289</v>
       </c>
@@ -5513,7 +4921,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="51" s="6" customFormat="1" spans="1:17">
+    <row r="51" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="34" t="s">
         <v>289</v>
       </c>
@@ -5564,7 +4972,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="52" s="6" customFormat="1" ht="12.95" customHeight="1" spans="1:17">
+    <row r="52" spans="1:27" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="34" t="s">
         <v>289</v>
       </c>
@@ -5615,7 +5023,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A53" s="12" t="s">
         <v>90</v>
       </c>
@@ -5668,7 +5076,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" s="6" customFormat="1" spans="1:27">
+    <row r="54" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="12" t="s">
         <v>221</v>
       </c>
@@ -5731,7 +5139,7 @@
       <c r="Z54" s="12"/>
       <c r="AA54" s="12"/>
     </row>
-    <row r="55" s="6" customFormat="1" spans="1:27">
+    <row r="55" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A55" s="12" t="s">
         <v>221</v>
       </c>
@@ -5794,7 +5202,7 @@
       <c r="Z55" s="12"/>
       <c r="AA55" s="12"/>
     </row>
-    <row r="56" s="6" customFormat="1" spans="1:17">
+    <row r="56" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6" t="s">
         <v>221</v>
       </c>
@@ -5847,7 +5255,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" s="6" customFormat="1" spans="1:17">
+    <row r="57" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6" t="s">
         <v>221</v>
       </c>
@@ -5900,7 +5308,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A58" s="12" t="s">
         <v>37</v>
       </c>
@@ -5953,7 +5361,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" s="6" customFormat="1" spans="1:17">
+    <row r="59" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A59" s="6" t="s">
         <v>92</v>
       </c>
@@ -6006,7 +5414,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="60" s="6" customFormat="1" spans="1:17">
+    <row r="60" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="6" t="s">
         <v>221</v>
       </c>
@@ -6059,7 +5467,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="61" s="7" customFormat="1" customHeight="1" spans="1:17">
+    <row r="61" spans="1:27" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="13">
         <v>1000</v>
       </c>
@@ -6112,7 +5520,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A62" s="12">
         <v>1000</v>
       </c>
@@ -6165,7 +5573,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A63" s="12">
         <v>1000</v>
       </c>
@@ -6218,7 +5626,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A64" s="6" t="s">
         <v>221</v>
       </c>
@@ -6271,7 +5679,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A65" s="12" t="s">
         <v>102</v>
       </c>
@@ -6322,7 +5730,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="66" s="6" customFormat="1" spans="1:17">
+    <row r="66" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A66" s="6" t="s">
         <v>320</v>
       </c>
@@ -6375,7 +5783,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="67" s="6" customFormat="1" spans="1:17">
+    <row r="67" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A67" s="6" t="s">
         <v>320</v>
       </c>
@@ -6425,7 +5833,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="68" s="6" customFormat="1" spans="1:17">
+    <row r="68" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A68" s="6" t="s">
         <v>130</v>
       </c>
@@ -6475,7 +5883,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A69" s="12" t="s">
         <v>35</v>
       </c>
@@ -6528,7 +5936,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A70" s="6" t="s">
         <v>221</v>
       </c>
@@ -6581,7 +5989,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="71" ht="12" customHeight="1" spans="1:17">
+    <row r="71" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="44" t="s">
         <v>244</v>
       </c>
@@ -6632,7 +6040,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A72" s="44" t="s">
         <v>244</v>
       </c>
@@ -6683,7 +6091,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="73" ht="12" customHeight="1" spans="1:17">
+    <row r="73" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="44" t="s">
         <v>258</v>
       </c>
@@ -6734,7 +6142,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A74" s="44" t="s">
         <v>258</v>
       </c>
@@ -6785,7 +6193,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="75" ht="15" customHeight="1" spans="1:17">
+    <row r="75" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="34" t="s">
         <v>265</v>
       </c>
@@ -6836,7 +6244,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A76" s="34" t="s">
         <v>265</v>
       </c>
@@ -6887,7 +6295,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="77" ht="12.95" customHeight="1" spans="1:17">
+    <row r="77" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="34" t="s">
         <v>265</v>
       </c>
@@ -6938,7 +6346,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A78" s="50" t="s">
         <v>280</v>
       </c>
@@ -6979,7 +6387,7 @@
       <c r="P78" s="14"/>
       <c r="Q78" s="49"/>
     </row>
-    <row r="79" ht="18" customHeight="1" spans="1:17">
+    <row r="79" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="50" t="s">
         <v>280</v>
       </c>
@@ -7020,7 +6428,7 @@
       <c r="P79" s="22"/>
       <c r="Q79" s="49"/>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A80" s="50" t="s">
         <v>280</v>
       </c>
@@ -7061,7 +6469,7 @@
       <c r="P80" s="53"/>
       <c r="Q80" s="49"/>
     </row>
-    <row r="81" ht="11.1" customHeight="1" spans="1:17">
+    <row r="81" spans="1:17" ht="11.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="34" t="s">
         <v>265</v>
       </c>
@@ -7112,7 +6520,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="82" s="6" customFormat="1" spans="1:17">
+    <row r="82" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A82" s="34" t="s">
         <v>289</v>
       </c>
@@ -7163,7 +6571,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="83" s="6" customFormat="1" ht="12.95" customHeight="1" spans="1:17">
+    <row r="83" spans="1:17" s="6" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="34" t="s">
         <v>289</v>
       </c>
@@ -7214,7 +6622,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="84" s="6" customFormat="1" spans="1:17">
+    <row r="84" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A84" s="34" t="s">
         <v>289</v>
       </c>
@@ -7265,7 +6673,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="85" ht="12.95" customHeight="1" spans="1:17">
+    <row r="85" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="34" t="s">
         <v>265</v>
       </c>
@@ -7316,7 +6724,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="86" ht="15" customHeight="1" spans="1:17">
+    <row r="86" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="34" t="s">
         <v>265</v>
       </c>
@@ -7367,7 +6775,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="87" ht="12" customHeight="1" spans="1:17">
+    <row r="87" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="32" t="s">
         <v>265</v>
       </c>
@@ -7418,7 +6826,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="88" spans="1:17">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A88" s="32" t="s">
         <v>265</v>
       </c>
@@ -7469,7 +6877,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="89" ht="12" customHeight="1" spans="1:17">
+    <row r="89" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="32" t="s">
         <v>265</v>
       </c>
@@ -7520,7 +6928,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="90" spans="1:17">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A90" s="32" t="s">
         <v>265</v>
       </c>
@@ -7571,7 +6979,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="91" ht="14.1" customHeight="1" spans="1:17">
+    <row r="91" spans="1:17" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="32" t="s">
         <v>265</v>
       </c>
@@ -7622,7 +7030,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="92" s="6" customFormat="1" ht="12" customHeight="1" spans="1:17">
+    <row r="92" spans="1:17" s="6" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="6" t="s">
         <v>37</v>
       </c>
@@ -7675,7 +7083,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="93" s="8" customFormat="1" spans="1:17">
+    <row r="93" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A93" s="6" t="s">
         <v>92</v>
       </c>
@@ -7726,7 +7134,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="94" s="8" customFormat="1" spans="1:17">
+    <row r="94" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A94" s="6" t="s">
         <v>92</v>
       </c>
@@ -7777,7 +7185,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="95" s="8" customFormat="1" spans="1:17">
+    <row r="95" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6" t="s">
         <v>92</v>
       </c>
@@ -7828,7 +7236,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="96" s="8" customFormat="1" spans="1:17">
+    <row r="96" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6" t="s">
         <v>92</v>
       </c>
@@ -7879,7 +7287,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="97" s="6" customFormat="1" spans="1:17">
+    <row r="97" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A97" s="6" t="s">
         <v>130</v>
       </c>
@@ -7932,7 +7340,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="98" s="6" customFormat="1" spans="1:17">
+    <row r="98" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6" t="s">
         <v>320</v>
       </c>
@@ -7982,7 +7390,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="99" s="6" customFormat="1" spans="1:17">
+    <row r="99" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A99" s="6" t="s">
         <v>320</v>
       </c>
@@ -8029,7 +7437,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="100" spans="1:17">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A100" s="6" t="s">
         <v>130</v>
       </c>
@@ -8080,7 +7488,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="101" spans="1:17">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A101" s="6" t="s">
         <v>130</v>
       </c>
@@ -8131,7 +7539,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="102" spans="1:17">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A102" s="6" t="s">
         <v>130</v>
       </c>
@@ -8182,7 +7590,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="103" spans="1:17">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A103" s="13">
         <v>1000</v>
       </c>
@@ -8233,7 +7641,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="104" spans="1:17">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A104" s="13">
         <v>1000</v>
       </c>
@@ -8284,7 +7692,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="105" spans="1:17">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A105" s="12">
         <v>1000</v>
       </c>
@@ -8335,7 +7743,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="106" spans="1:17">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A106" s="12">
         <v>1000</v>
       </c>
@@ -8386,7 +7794,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="107" spans="1:17">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A107" s="12">
         <v>1000</v>
       </c>
@@ -8437,7 +7845,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="108" s="6" customFormat="1" spans="1:17">
+    <row r="108" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A108" s="6" t="s">
         <v>130</v>
       </c>
@@ -8484,7 +7892,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="109" spans="1:17">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A109" s="12">
         <v>1000</v>
       </c>
@@ -8535,7 +7943,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="110" s="6" customFormat="1" spans="1:17">
+    <row r="110" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A110" s="6" t="s">
         <v>130</v>
       </c>
@@ -8582,7 +7990,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="111" spans="1:17">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A111" s="12" t="s">
         <v>130</v>
       </c>
@@ -8633,7 +8041,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="112" spans="1:17">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A112" s="12" t="s">
         <v>130</v>
       </c>
@@ -8684,7 +8092,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="113" spans="1:17">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A113" s="12" t="s">
         <v>130</v>
       </c>
@@ -8735,7 +8143,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="114" spans="1:17">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A114" s="12" t="s">
         <v>130</v>
       </c>
@@ -8786,7 +8194,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="115" spans="1:17">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A115" s="12" t="s">
         <v>130</v>
       </c>
@@ -8837,7 +8245,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="116" s="7" customFormat="1" ht="14.25" customHeight="1" spans="1:17">
+    <row r="116" spans="1:18" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="13">
         <v>1000</v>
       </c>
@@ -8890,7 +8298,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="117" s="7" customFormat="1" customHeight="1" spans="1:17">
+    <row r="117" spans="1:18" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="13">
         <v>1000</v>
       </c>
@@ -8943,7 +8351,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="118" spans="1:18">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A118" s="28" t="s">
         <v>145</v>
       </c>
@@ -8997,7 +8405,7 @@
       </c>
       <c r="R118" s="45"/>
     </row>
-    <row r="119" spans="1:18">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A119" s="28" t="s">
         <v>145</v>
       </c>
@@ -9051,7 +8459,7 @@
       </c>
       <c r="R119" s="45"/>
     </row>
-    <row r="120" spans="1:18">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A120" s="28" t="s">
         <v>145</v>
       </c>
@@ -9105,7 +8513,7 @@
       </c>
       <c r="R120" s="45"/>
     </row>
-    <row r="121" spans="1:18">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A121" s="28" t="s">
         <v>145</v>
       </c>
@@ -9159,7 +8567,7 @@
       </c>
       <c r="R121" s="45"/>
     </row>
-    <row r="122" spans="1:18">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A122" s="28" t="s">
         <v>145</v>
       </c>
@@ -9213,7 +8621,7 @@
       </c>
       <c r="R122" s="45"/>
     </row>
-    <row r="123" spans="1:18">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A123" s="28" t="s">
         <v>145</v>
       </c>
@@ -9267,7 +8675,7 @@
       </c>
       <c r="R123" s="45"/>
     </row>
-    <row r="124" spans="1:18">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A124" s="28" t="s">
         <v>145</v>
       </c>
@@ -9321,7 +8729,7 @@
       </c>
       <c r="R124" s="45"/>
     </row>
-    <row r="125" spans="1:18">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A125" s="28" t="s">
         <v>145</v>
       </c>
@@ -9375,7 +8783,7 @@
       </c>
       <c r="R125" s="45"/>
     </row>
-    <row r="126" spans="1:18">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A126" s="28" t="s">
         <v>145</v>
       </c>
@@ -9429,7 +8837,7 @@
       </c>
       <c r="R126" s="45"/>
     </row>
-    <row r="127" spans="1:18">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A127" s="28" t="s">
         <v>145</v>
       </c>
@@ -9483,7 +8891,7 @@
       </c>
       <c r="R127" s="45"/>
     </row>
-    <row r="128" customHeight="1" spans="1:18">
+    <row r="128" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="28" t="s">
         <v>145</v>
       </c>
@@ -9537,7 +8945,7 @@
       </c>
       <c r="R128" s="45"/>
     </row>
-    <row r="129" ht="14.1" customHeight="1" spans="1:17">
+    <row r="129" spans="1:1024" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="29" t="s">
         <v>145</v>
       </c>
@@ -9590,7 +8998,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="130" ht="12.95" customHeight="1" spans="1:17">
+    <row r="130" spans="1:1024" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="24" t="s">
         <v>145</v>
       </c>
@@ -9643,7 +9051,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="131" s="6" customFormat="1" spans="1:17">
+    <row r="131" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A131" s="29" t="s">
         <v>145</v>
       </c>
@@ -9696,7 +9104,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="132" s="6" customFormat="1" spans="1:17">
+    <row r="132" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A132" s="23" t="s">
         <v>145</v>
       </c>
@@ -9749,7 +9157,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="133" s="6" customFormat="1" spans="1:17">
+    <row r="133" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A133" s="29" t="s">
         <v>145</v>
       </c>
@@ -9802,7 +9210,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="134" s="6" customFormat="1" spans="1:17">
+    <row r="134" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A134" s="23" t="s">
         <v>145</v>
       </c>
@@ -9855,7 +9263,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="135" s="6" customFormat="1" spans="1:17">
+    <row r="135" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A135" s="6" t="s">
         <v>145</v>
       </c>
@@ -9908,7 +9316,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="136" s="6" customFormat="1" spans="1:17">
+    <row r="136" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A136" s="6" t="s">
         <v>145</v>
       </c>
@@ -9961,7 +9369,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="137" s="6" customFormat="1" spans="1:17">
+    <row r="137" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A137" s="6" t="s">
         <v>145</v>
       </c>
@@ -10014,7 +9422,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="138" s="6" customFormat="1" spans="1:17">
+    <row r="138" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A138" s="6" t="s">
         <v>145</v>
       </c>
@@ -10067,7 +9475,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="139" spans="1:17">
+    <row r="139" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A139" s="12" t="s">
         <v>37</v>
       </c>
@@ -10120,7 +9528,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="140" spans="1:17">
+    <row r="140" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A140" s="12" t="s">
         <v>37</v>
       </c>
@@ -10173,7 +9581,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="141" s="9" customFormat="1" spans="1:17">
+    <row r="141" spans="1:1024" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A141" s="13" t="s">
         <v>35</v>
       </c>
@@ -10226,7 +9634,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="142" s="9" customFormat="1" spans="1:17">
+    <row r="142" spans="1:1024" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A142" s="13" t="s">
         <v>35</v>
       </c>
@@ -10279,7 +9687,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="143" spans="1:17">
+    <row r="143" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A143" s="12" t="s">
         <v>130</v>
       </c>
@@ -10332,7 +9740,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="144" s="10" customFormat="1" spans="1:1024">
+    <row r="144" spans="1:1024" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A144" s="10">
         <v>1000</v>
       </c>
@@ -11392,7 +10800,7 @@
       <c r="AMI144" s="67"/>
       <c r="AMJ144" s="67"/>
     </row>
-    <row r="145" s="10" customFormat="1" spans="1:1024">
+    <row r="145" spans="1:1024" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A145" s="10">
         <v>1000</v>
       </c>
@@ -12450,7 +11858,7 @@
       <c r="AMI145" s="67"/>
       <c r="AMJ145" s="67"/>
     </row>
-    <row r="146" s="10" customFormat="1" spans="1:1024">
+    <row r="146" spans="1:1024" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A146" s="10">
         <v>1000</v>
       </c>
@@ -13508,7 +12916,7 @@
       <c r="AMI146" s="67"/>
       <c r="AMJ146" s="67"/>
     </row>
-    <row r="147" s="10" customFormat="1" spans="1:1024">
+    <row r="147" spans="1:1024" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A147" s="10">
         <v>1000</v>
       </c>
@@ -14566,7 +13974,7 @@
       <c r="AMI147" s="67"/>
       <c r="AMJ147" s="67"/>
     </row>
-    <row r="148" s="11" customFormat="1" spans="1:17">
+    <row r="148" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A148" s="11" t="s">
         <v>92</v>
       </c>
@@ -14617,7 +14025,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="149" s="11" customFormat="1" spans="1:17">
+    <row r="149" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A149" s="11" t="s">
         <v>92</v>
       </c>
@@ -14668,7 +14076,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="150" s="11" customFormat="1" spans="1:17">
+    <row r="150" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A150" s="11" t="s">
         <v>92</v>
       </c>
@@ -14719,7 +14127,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="151" s="11" customFormat="1" spans="1:17">
+    <row r="151" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A151" s="11" t="s">
         <v>92</v>
       </c>
@@ -14770,7 +14178,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="152" s="11" customFormat="1" spans="1:17">
+    <row r="152" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A152" s="11" t="s">
         <v>92</v>
       </c>
@@ -14821,7 +14229,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="153" s="11" customFormat="1" spans="1:17">
+    <row r="153" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A153" s="11" t="s">
         <v>92</v>
       </c>
@@ -14872,7 +14280,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="154" s="11" customFormat="1" spans="1:17">
+    <row r="154" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A154" s="11" t="s">
         <v>92</v>
       </c>
@@ -14923,7 +14331,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="155" s="11" customFormat="1" spans="1:17">
+    <row r="155" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A155" s="11" t="s">
         <v>92</v>
       </c>
@@ -14974,7 +14382,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="156" spans="1:17">
+    <row r="156" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A156" s="12" t="s">
         <v>145</v>
       </c>
@@ -15025,7 +14433,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="157" spans="1:17">
+    <row r="157" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A157" s="12" t="s">
         <v>145</v>
       </c>
@@ -15076,7 +14484,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="158" spans="1:17">
+    <row r="158" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A158" s="12" t="s">
         <v>145</v>
       </c>
@@ -15127,7 +14535,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="159" spans="1:17">
+    <row r="159" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A159" s="12" t="s">
         <v>145</v>
       </c>
@@ -15178,7 +14586,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="160" spans="1:17">
+    <row r="160" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A160" s="12" t="s">
         <v>145</v>
       </c>
@@ -15229,7 +14637,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="161" spans="1:17">
+    <row r="161" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A161" s="12" t="s">
         <v>145</v>
       </c>
@@ -15280,7 +14688,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="162" spans="1:17">
+    <row r="162" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A162" s="12" t="s">
         <v>145</v>
       </c>
@@ -15331,7 +14739,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="163" spans="1:17">
+    <row r="163" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A163" s="12" t="s">
         <v>145</v>
       </c>
@@ -15382,7 +14790,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="164" ht="14.25" customHeight="1" spans="1:17">
+    <row r="164" spans="1:1024" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="24" t="s">
         <v>145</v>
       </c>
@@ -15435,7 +14843,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="165" ht="14.1" customHeight="1" spans="1:17">
+    <row r="165" spans="1:1024" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="29" t="s">
         <v>145</v>
       </c>
@@ -15488,7 +14896,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="166" ht="12.95" customHeight="1" spans="1:17">
+    <row r="166" spans="1:1024" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="24" t="s">
         <v>145</v>
       </c>
@@ -15541,7 +14949,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="167" s="9" customFormat="1" spans="1:17">
+    <row r="167" spans="1:1024" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A167" s="13" t="s">
         <v>35</v>
       </c>
@@ -15592,7 +15000,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="168" s="9" customFormat="1" spans="1:17">
+    <row r="168" spans="1:1024" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A168" s="13" t="s">
         <v>35</v>
       </c>
@@ -15643,7 +15051,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="169" spans="1:17">
+    <row r="169" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A169" s="12" t="s">
         <v>145</v>
       </c>
@@ -15694,7 +15102,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="170" spans="1:17">
+    <row r="170" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A170" s="12" t="s">
         <v>145</v>
       </c>
@@ -15745,7 +15153,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="171" spans="1:17">
+    <row r="171" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A171" s="12" t="s">
         <v>130</v>
       </c>
@@ -15796,7 +15204,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="172" spans="1:17">
+    <row r="172" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A172" s="12" t="s">
         <v>130</v>
       </c>
@@ -15844,7 +15252,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="173" spans="1:17">
+    <row r="173" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A173" s="12" t="s">
         <v>130</v>
       </c>
@@ -15892,7 +15300,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="174" s="10" customFormat="1" spans="1:1024">
+    <row r="174" spans="1:1024" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A174" s="10">
         <v>1000</v>
       </c>
@@ -16949,7 +16357,7 @@
       <c r="AMI174" s="67"/>
       <c r="AMJ174" s="67"/>
     </row>
-    <row r="175" s="10" customFormat="1" spans="1:1024">
+    <row r="175" spans="1:1024" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A175" s="10">
         <v>1000</v>
       </c>
@@ -18004,7 +17412,7 @@
       <c r="AMI175" s="67"/>
       <c r="AMJ175" s="67"/>
     </row>
-    <row r="176" s="10" customFormat="1" spans="1:1024">
+    <row r="176" spans="1:1024" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A176" s="10">
         <v>1000</v>
       </c>
@@ -19059,7 +18467,7 @@
       <c r="AMI176" s="67"/>
       <c r="AMJ176" s="67"/>
     </row>
-    <row r="177" s="10" customFormat="1" spans="1:1024">
+    <row r="177" spans="1:1024" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A177" s="10">
         <v>1000</v>
       </c>
@@ -20114,7 +19522,7 @@
       <c r="AMI177" s="67"/>
       <c r="AMJ177" s="67"/>
     </row>
-    <row r="178" s="6" customFormat="1" spans="1:17">
+    <row r="178" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A178" s="23" t="s">
         <v>145</v>
       </c>
@@ -20164,7 +19572,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="179" s="6" customFormat="1" spans="1:17">
+    <row r="179" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A179" s="23" t="s">
         <v>145</v>
       </c>
@@ -20214,7 +19622,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="180" s="6" customFormat="1" spans="1:17">
+    <row r="180" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A180" s="23" t="s">
         <v>145</v>
       </c>
@@ -20264,7 +19672,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="181" s="6" customFormat="1" spans="1:17">
+    <row r="181" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A181" s="23" t="s">
         <v>145</v>
       </c>
@@ -20314,7 +19722,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="182" s="6" customFormat="1" spans="1:17">
+    <row r="182" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A182" s="23" t="s">
         <v>145</v>
       </c>
@@ -20364,7 +19772,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="183" s="6" customFormat="1" spans="1:17">
+    <row r="183" spans="1:1024" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A183" s="23" t="s">
         <v>145</v>
       </c>
@@ -20414,7 +19822,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="184" spans="1:17">
+    <row r="184" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A184" s="12" t="s">
         <v>102</v>
       </c>
@@ -20467,7 +19875,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="185" spans="1:17">
+    <row r="185" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A185" s="12" t="s">
         <v>102</v>
       </c>
@@ -20520,7 +19928,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="186" spans="1:17">
+    <row r="186" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A186" s="12" t="s">
         <v>102</v>
       </c>
@@ -20573,7 +19981,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="187" spans="1:17">
+    <row r="187" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A187" s="12" t="s">
         <v>35</v>
       </c>
@@ -20626,7 +20034,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="188" spans="1:17">
+    <row r="188" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A188" s="12" t="s">
         <v>35</v>
       </c>
@@ -20679,7 +20087,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="189" spans="1:18">
+    <row r="189" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A189" s="26" t="s">
         <v>35</v>
       </c>
@@ -20733,7 +20141,7 @@
       </c>
       <c r="R189" s="45"/>
     </row>
-    <row r="190" spans="1:18">
+    <row r="190" spans="1:1024" x14ac:dyDescent="0.15">
       <c r="A190" s="26" t="s">
         <v>35</v>
       </c>
@@ -20787,84 +20195,133 @@
       </c>
       <c r="R190" s="45"/>
     </row>
-    <row r="198" spans="14:14">
+    <row r="191" spans="1:1024" x14ac:dyDescent="0.15">
+      <c r="A191" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B191" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D191" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="E191" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="F191" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G191" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="H191" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="I191" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J191" s="24" t="s">
+        <v>508</v>
+      </c>
+      <c r="K191" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="L191" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="M191" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="N191" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="O191" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="P191" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q191" s="22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="198" spans="14:14" x14ac:dyDescent="0.15">
       <c r="N198" s="33"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q190">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:Q191"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E32:E52 E54:E55 E71:E91">
       <formula1>"aarch64,x86_64"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="Q11" r:id="rId1" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/aarch64/Packages/cuda_11.4.2_470.57.02_linux_sbsa.run"/>
-    <hyperlink ref="Q12" r:id="rId1" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/aarch64/Packages/cuda_11.4.2_470.57.02_linux_sbsa.run"/>
-    <hyperlink ref="Q28" r:id="rId2" display="inbox"/>
-    <hyperlink ref="Q65" r:id="rId3" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/aarch64/Packages/cuda_11.6.2_510.47.03_linux_sbsa.run"/>
-    <hyperlink ref="Q93" r:id="rId4" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/qla2xxx-10.02.06.04_k-1_OpenEuler.zip"/>
-    <hyperlink ref="Q94" r:id="rId4" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/qla2xxx-10.02.06.04_k-1_OpenEuler.zip"/>
-    <hyperlink ref="Q95" r:id="rId4" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/qla2xxx-10.02.06.04_k-1_OpenEuler.zip"/>
-    <hyperlink ref="Q96" r:id="rId4" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/qla2xxx-10.02.06.04_k-1_OpenEuler.zip"/>
-    <hyperlink ref="Q97" r:id="rId2" display="inbox"/>
-    <hyperlink ref="Q148" r:id="rId4" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/qla2xxx-10.02.06.04_k-1_OpenEuler.zip"/>
-    <hyperlink ref="Q149" r:id="rId4" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/qla2xxx-10.02.06.04_k-1_OpenEuler.zip"/>
-    <hyperlink ref="Q150" r:id="rId4" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/qla2xxx-10.02.06.04_k-1_OpenEuler.zip"/>
-    <hyperlink ref="Q151" r:id="rId4" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/qla2xxx-10.02.06.04_k-1_OpenEuler.zip"/>
-    <hyperlink ref="Q152" r:id="rId4" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/qla2xxx-10.02.06.04_k-1_OpenEuler.zip"/>
-    <hyperlink ref="Q153" r:id="rId4" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/qla2xxx-10.02.06.04_k-1_OpenEuler.zip"/>
-    <hyperlink ref="Q154" r:id="rId4" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/qla2xxx-10.02.06.04_k-1_OpenEuler.zip"/>
-    <hyperlink ref="Q155" r:id="rId4" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/qla2xxx-10.02.06.04_k-1_OpenEuler.zip"/>
-    <hyperlink ref="Q156" r:id="rId5" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/MLNX_OFED_LINUX-5.7-1.0.2.0-openeuler20.03sp3-aarch64.tgz"/>
-    <hyperlink ref="Q157" r:id="rId6" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/MLNX_OFED_LINUX-5.7-1.0.2.0-openeuler20.03sp3-x86_64.tgz"/>
-    <hyperlink ref="Q158" r:id="rId5" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/MLNX_OFED_LINUX-5.7-1.0.2.0-openeuler20.03sp3-aarch64.tgz"/>
-    <hyperlink ref="Q159" r:id="rId6" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/MLNX_OFED_LINUX-5.7-1.0.2.0-openeuler20.03sp3-x86_64.tgz"/>
-    <hyperlink ref="Q160" r:id="rId5" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/MLNX_OFED_LINUX-5.7-1.0.2.0-openeuler20.03sp3-aarch64.tgz"/>
-    <hyperlink ref="Q161" r:id="rId6" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/MLNX_OFED_LINUX-5.7-1.0.2.0-openeuler20.03sp3-x86_64.tgz"/>
-    <hyperlink ref="Q162" r:id="rId5" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/MLNX_OFED_LINUX-5.7-1.0.2.0-openeuler20.03sp3-aarch64.tgz"/>
-    <hyperlink ref="Q163" r:id="rId6" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/MLNX_OFED_LINUX-5.7-1.0.2.0-openeuler20.03sp3-x86_64.tgz"/>
-    <hyperlink ref="Q27" r:id="rId2" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/qla2xxx-10.02.06.02_k-1dkms.zip"/>
-    <hyperlink ref="Q167" r:id="rId7" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/igb-5.11.4.tar.gz"/>
-    <hyperlink ref="Q168" r:id="rId7" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/igb-5.11.4.tar.gz"/>
-    <hyperlink ref="Q169" r:id="rId5" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/MLNX_OFED_LINUX-5.7-1.0.2.0-openeuler20.03sp3-aarch64.tgz"/>
-    <hyperlink ref="Q170" r:id="rId6" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/MLNX_OFED_LINUX-5.7-1.0.2.0-openeuler20.03sp3-x86_64.tgz"/>
-    <hyperlink ref="Q171" r:id="rId8" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/MR_LINUX_DRIVER_7.22-07.722.02.00-2.tgz"/>
-    <hyperlink ref="Q172:Q173" r:id="rId8" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/MR_LINUX_DRIVER_7.22-07.722.02.00-2.tgz"/>
-    <hyperlink ref="Q174" r:id="rId8" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/MR_LINUX_DRIVER_7.22-07.722.02.00-2.tgz"/>
-    <hyperlink ref="Q175" r:id="rId8" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/MR_LINUX_DRIVER_7.22-07.722.02.00-2.tgz"/>
-    <hyperlink ref="Q176" r:id="rId8" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/MR_LINUX_DRIVER_7.22-07.722.02.00-2.tgz"/>
-    <hyperlink ref="Q177" r:id="rId8" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/MR_LINUX_DRIVER_7.22-07.722.02.00-2.tgz"/>
-    <hyperlink ref="Q178:Q180" r:id="rId6" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/MLNX_OFED_LINUX-5.7-1.0.2.0-openeuler20.03sp3-x86_64.tgz"/>
-    <hyperlink ref="Q181:Q183" r:id="rId5" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/MLNX_OFED_LINUX-5.7-1.0.2.0-openeuler20.03sp3-aarch64.tgz"/>
-    <hyperlink ref="Q178" r:id="rId6" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/MLNX_OFED_LINUX-5.7-1.0.2.0-openeuler20.03sp3-x86_64.tgz"/>
-    <hyperlink ref="Q181" r:id="rId5" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/MLNX_OFED_LINUX-5.7-1.0.2.0-openeuler20.03sp3-aarch64.tgz"/>
-    <hyperlink ref="Q187" r:id="rId9" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/ice-1.9.11.tar.gz"/>
-    <hyperlink ref="Q188" r:id="rId9" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/ice-1.9.11.tar.gz"/>
-    <hyperlink ref="Q190" r:id="rId10" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/i40e-2.20.12.tar.gz" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/i40e-2.20.12.tar.gz"/>
+    <hyperlink ref="Q11" r:id="rId1"/>
+    <hyperlink ref="Q12" r:id="rId2"/>
+    <hyperlink ref="Q28" r:id="rId3"/>
+    <hyperlink ref="Q65" r:id="rId4"/>
+    <hyperlink ref="Q93" r:id="rId5"/>
+    <hyperlink ref="Q94" r:id="rId6"/>
+    <hyperlink ref="Q95" r:id="rId7"/>
+    <hyperlink ref="Q96" r:id="rId8"/>
+    <hyperlink ref="Q97" r:id="rId9"/>
+    <hyperlink ref="Q148" r:id="rId10"/>
+    <hyperlink ref="Q149" r:id="rId11"/>
+    <hyperlink ref="Q150" r:id="rId12"/>
+    <hyperlink ref="Q151" r:id="rId13"/>
+    <hyperlink ref="Q152" r:id="rId14"/>
+    <hyperlink ref="Q153" r:id="rId15"/>
+    <hyperlink ref="Q154" r:id="rId16"/>
+    <hyperlink ref="Q155" r:id="rId17"/>
+    <hyperlink ref="Q156" r:id="rId18"/>
+    <hyperlink ref="Q157" r:id="rId19"/>
+    <hyperlink ref="Q158" r:id="rId20"/>
+    <hyperlink ref="Q159" r:id="rId21"/>
+    <hyperlink ref="Q160" r:id="rId22"/>
+    <hyperlink ref="Q161" r:id="rId23"/>
+    <hyperlink ref="Q162" r:id="rId24"/>
+    <hyperlink ref="Q163" r:id="rId25"/>
+    <hyperlink ref="Q27" r:id="rId26"/>
+    <hyperlink ref="Q167" r:id="rId27"/>
+    <hyperlink ref="Q168" r:id="rId28"/>
+    <hyperlink ref="Q169" r:id="rId29"/>
+    <hyperlink ref="Q170" r:id="rId30"/>
+    <hyperlink ref="Q171" r:id="rId31"/>
+    <hyperlink ref="Q172:Q173" r:id="rId32" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/MR_LINUX_DRIVER_7.22-07.722.02.00-2.tgz"/>
+    <hyperlink ref="Q174" r:id="rId33"/>
+    <hyperlink ref="Q175" r:id="rId34"/>
+    <hyperlink ref="Q176" r:id="rId35"/>
+    <hyperlink ref="Q177" r:id="rId36"/>
+    <hyperlink ref="Q178:Q180" r:id="rId37" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/MLNX_OFED_LINUX-5.7-1.0.2.0-openeuler20.03sp3-x86_64.tgz"/>
+    <hyperlink ref="Q181:Q183" r:id="rId38" display="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/MLNX_OFED_LINUX-5.7-1.0.2.0-openeuler20.03sp3-aarch64.tgz"/>
+    <hyperlink ref="Q178" r:id="rId39"/>
+    <hyperlink ref="Q181" r:id="rId40"/>
+    <hyperlink ref="Q187" r:id="rId41"/>
+    <hyperlink ref="Q188" r:id="rId42"/>
+    <hyperlink ref="Q190" r:id="rId43" tooltip="https://repo.oepkgs.net/openEuler/rpm/openEuler-20.03-LTS-SP3/contrib/drivers/source/Packages/i40e-2.20.12.tar.gz"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555555" right="0.699305555555555" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.69930555555555496" right="0.69930555555555496" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="4"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.748031496062992" right="0.748031496062992" top="0.984251968503937" bottom="0.984251968503937" header="0.511811023622047" footer="0.511811023622047"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.74803149606299202" right="0.74803149606299202" top="0.98425196850393704" bottom="0.98425196850393704" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;L&amp;G&amp;C&amp;F&amp;R文档密级</oddHeader>
@@ -20875,15 +20332,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMJ10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="29.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.125" style="1" customWidth="1"/>
@@ -20891,7 +20347,7 @@
     <col min="4" max="1024" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>505</v>
       </c>
@@ -20900,9 +20356,10 @@
       </c>
       <c r="C1" s="3"/>
     </row>
-    <row r="10" ht="27" customHeight="1"/>
+    <row r="10" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;F&amp;R文档密级</oddHeader>
